--- a/single/jwave-IF1601-2015-12-22bfore.xlsx
+++ b/single/jwave-IF1601-2015-12-22bfore.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\investment\signal\single\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\prototype\Github\lqq\Wisdom\single\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14340"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="jwave-IF1601-2015-12-22bfore" sheetId="1" r:id="rId1"/>
@@ -1418,11 +1418,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="525755296"/>
-        <c:axId val="525756472"/>
+        <c:axId val="483621208"/>
+        <c:axId val="483621600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="525755296"/>
+        <c:axId val="483621208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1464,7 +1464,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525756472"/>
+        <c:crossAx val="483621600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1472,7 +1472,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="525756472"/>
+        <c:axId val="483621600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,7 +1523,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525755296"/>
+        <c:crossAx val="483621208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2120,15 +2120,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
       <xdr:row>208</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2415,7 +2415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B199"/>
     </sheetView>
   </sheetViews>
